--- a/속성규칙정의서.xlsx
+++ b/속성규칙정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ParKick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F52C09-476A-4B0A-AD48-F3296750DC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCEFFA-9BB2-482B-BA5C-1E85F5766A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
+    <workbookView xWindow="4450" yWindow="670" windowWidth="14400" windowHeight="7460" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>VIEW_STARS_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific zone으로 받을 수 있으니, 좌표들을 string으로 전달</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9DF65-2A49-48FC-B4B7-19E79F7BBB72}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -785,9 +793,10 @@
     <col min="6" max="6" width="20.58203125" customWidth="1"/>
     <col min="7" max="10" width="10.58203125" customWidth="1"/>
     <col min="11" max="11" width="50.58203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -848,7 +857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -862,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -876,7 +885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -890,10 +899,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -918,8 +927,11 @@
       <c r="K7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -936,7 +948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -962,7 +974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -976,7 +988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1065,6 +1077,9 @@
       </c>
       <c r="F17" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">

--- a/속성규칙정의서.xlsx
+++ b/속성규칙정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ParKick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCEFFA-9BB2-482B-BA5C-1E85F5766A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2B3FB-8B6F-41D4-8AA3-DA20072C67DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4450" yWindow="670" windowWidth="14400" windowHeight="7460" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
+    <workbookView xWindow="5055" yWindow="-15060" windowWidth="21600" windowHeight="11370" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +424,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +478,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9DF65-2A49-48FC-B4B7-19E79F7BBB72}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -903,50 +928,60 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">

--- a/속성규칙정의서.xlsx
+++ b/속성규칙정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ParKick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2B3FB-8B6F-41D4-8AA3-DA20072C67DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196D609E-352C-47A3-9E68-CDF5C0D608C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="-15060" windowWidth="21600" windowHeight="11370" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
+    <workbookView xWindow="3795" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:L8"/>
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1055,19 +1055,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1132,19 +1132,19 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1228,19 +1228,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1271,19 +1271,19 @@
       <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="7" t="s">
         <v>50</v>
       </c>
     </row>

--- a/속성규칙정의서.xlsx
+++ b/속성규칙정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ParKick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196D609E-352C-47A3-9E68-CDF5C0D608C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799FA90-BD74-4BA0-B256-3AC27C795F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +440,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9DF65-2A49-48FC-B4B7-19E79F7BBB72}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1149,7 +1160,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">

--- a/속성규칙정의서.xlsx
+++ b/속성규칙정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ParKick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799FA90-BD74-4BA0-B256-3AC27C795F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1393465A-A571-4DA3-83ED-245D21145894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{485B619F-238B-4601-98B0-9E861B0F05AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,6 +384,14 @@
   </si>
   <si>
     <t>specific zone으로 받을 수 있으니, 좌표들을 string으로 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* point 는 구역마다 나눠서 받아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* id가 개별적으로 생성-&gt; 식별문자 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -813,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9DF65-2A49-48FC-B4B7-19E79F7BBB72}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1346,7 +1354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>79</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>81</v>
       </c>
@@ -1378,6 +1386,16 @@
       </c>
       <c r="H34" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
